--- a/public/assets/BOs/Isis.xlsx
+++ b/public/assets/BOs/Isis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\Isis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE95BCC-F9F6-487A-AE0B-B8A8C75D8052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B158047-E965-4791-BA39-FDBC4F45482F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
-    <t>Isis - 2 TC + 2 Anubites - Firefox</t>
-  </si>
-  <si>
     <t>Archaic</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
     <t>Pre-queue Necropolis</t>
   </si>
   <si>
-    <t>Isis - FH (AE) - Firefox</t>
-  </si>
-  <si>
     <t>Priest builds Obelisks when enough Gold</t>
   </si>
   <si>
@@ -892,9 +886,6 @@
   </si>
   <si>
     <t>Heroic (7.15)</t>
-  </si>
-  <si>
-    <t>Isis - Water FH - Firefox</t>
   </si>
   <si>
     <r>
@@ -1130,6 +1121,15 @@
   </si>
   <si>
     <t>Pre-queue Purse Seine</t>
+  </si>
+  <si>
+    <t>2 TC + 2 Anubites - By Firefox</t>
+  </si>
+  <si>
+    <t>FH (AE) - By Firefox</t>
+  </si>
+  <si>
+    <t>Water FH - By Firefox</t>
   </si>
 </sst>
 </file>
@@ -1268,12 +1268,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1281,16 +1284,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1512,7 +1505,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1524,24 +1517,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1549,95 +1542,95 @@
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1646,61 +1639,61 @@
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -1731,7 +1724,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D26"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1740,270 +1733,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="12" t="s">
+      <c r="B24" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="D24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="14" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="B25" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="13" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2023,7 +2011,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2033,125 +2021,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="B12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/BOs/Isis.xlsx
+++ b/public/assets/BOs/Isis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B158047-E965-4791-BA39-FDBC4F45482F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E36BA2-0AD9-4C80-B06E-50D3DAE1A352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>Archaic</t>
   </si>
@@ -1131,12 +1131,21 @@
   <si>
     <t>Water FH - By Firefox</t>
   </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h-2EuniduXM&amp;t=&amp;ab_channel=DeitiesofDeath</t>
+  </si>
+  <si>
+    <t>https://youtu.be/h-2EuniduXM?si=DzI9yv7mW9gFL4KP&amp;t=510</t>
+  </si>
+  <si>
+    <t>https://youtu.be/h-2EuniduXM?si=BsCb5yP7MBGUuLad&amp;t=832</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1235,6 +1244,14 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1265,10 +1282,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1284,8 +1302,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1505,7 +1525,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1697,7 +1717,9 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1715,16 +1737,19 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A15:D15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A19" r:id="rId1" xr:uid="{4C91AAB3-6B4F-4B44-BD78-60B7E00C7994}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DBAFE0-52F5-4DF4-A814-454F2AD29450}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1993,6 +2018,11 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A26:D26"/>
@@ -2002,16 +2032,19 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A22:D22"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A27" r:id="rId1" tooltip="https://www.youtube.com/watch?v=h-2EuniduXM&amp;t=&amp;ab_channel=DeitiesofDeath" xr:uid="{1B185A4F-F88B-4BE6-AB88-5E92D2C3BE53}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A6961A-B4FE-4F60-B3D4-E503383CEF12}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2142,6 +2175,11 @@
         <v>81</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>

--- a/public/assets/BOs/Isis.xlsx
+++ b/public/assets/BOs/Isis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E36BA2-0AD9-4C80-B06E-50D3DAE1A352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8D1E4B-4CA9-4EF1-846E-6C8BE7A78548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1123,15 +1123,6 @@
     <t>Pre-queue Purse Seine</t>
   </si>
   <si>
-    <t>2 TC + 2 Anubites - By Firefox</t>
-  </si>
-  <si>
-    <t>FH (AE) - By Firefox</t>
-  </si>
-  <si>
-    <t>Water FH - By Firefox</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=h-2EuniduXM&amp;t=&amp;ab_channel=DeitiesofDeath</t>
   </si>
   <si>
@@ -1139,6 +1130,15 @@
   </si>
   <si>
     <t>https://youtu.be/h-2EuniduXM?si=BsCb5yP7MBGUuLad&amp;t=832</t>
+  </si>
+  <si>
+    <t>OUTDATED - Water FH - By Firefox</t>
+  </si>
+  <si>
+    <t>OUTDATED - FH (AE) - By Firefox</t>
+  </si>
+  <si>
+    <t>OUTDATED - 2 TC + 2 Anubites - By Firefox</t>
   </si>
 </sst>
 </file>
@@ -1295,6 +1295,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1302,7 +1303,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1524,8 +1524,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1537,20 +1537,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1641,12 +1641,12 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1677,12 +1677,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1717,8 +1717,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>86</v>
+      <c r="A19" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1749,7 +1749,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1758,20 +1758,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1896,12 +1896,12 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1916,12 +1916,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1970,12 +1970,12 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -2011,16 +2011,16 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>85</v>
+      <c r="A27" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A6961A-B4FE-4F60-B3D4-E503383CEF12}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2054,20 +2054,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2148,12 +2148,12 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2177,7 +2177,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/BOs/Isis.xlsx
+++ b/public/assets/BOs/Isis.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8D1E4B-4CA9-4EF1-846E-6C8BE7A78548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F5BD51-EF2F-4A4E-B8E6-221ED9C134BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
   <si>
     <t>Archaic</t>
   </si>
@@ -1139,6 +1140,57 @@
   </si>
   <si>
     <t>OUTDATED - 2 TC + 2 Anubites - By Firefox</t>
+  </si>
+  <si>
+    <t>Isis 2 TC</t>
+  </si>
+  <si>
+    <t>4/0/0/0</t>
+  </si>
+  <si>
+    <t>first 3 vills cut a tree for 8 extra wood, then build a granary and go hunt. 4th villager makes a monument then goes to hunt. Autoqueue Flood of the nile</t>
+  </si>
+  <si>
+    <t>4/5/0/1</t>
+  </si>
+  <si>
+    <t>next 5 vills go to gold and get pickaxe early. Whilst this is happening you can bounce your pharaoh betweent the granary and monument but not essential</t>
+  </si>
+  <si>
+    <t>7/5/0/1</t>
+  </si>
+  <si>
+    <t>Up to 7 vills food, build a temple after flood has started with 3 vills</t>
+  </si>
+  <si>
+    <t>7/7/0/1</t>
+  </si>
+  <si>
+    <t>All vills onto gold from here, build temple and keep 1 on favour for early atalanta</t>
+  </si>
+  <si>
+    <t>Click up, might need to force drop</t>
+  </si>
+  <si>
+    <t>Advance 3:15 ish - Bast generally for eco game or Anubis for raiding/vs Norse or Poseidon</t>
+  </si>
+  <si>
+    <t>2/2/9/1</t>
+  </si>
+  <si>
+    <t>Advance with these vills for 2nd tc + use prosperity</t>
+  </si>
+  <si>
+    <t>Get a 2nd priest and the upgrade to pick some relics</t>
+  </si>
+  <si>
+    <t>Classical 4:15</t>
+  </si>
+  <si>
+    <t>Take your 2nd tc ASAP with pharaoh priests and your gold vills</t>
+  </si>
+  <si>
+    <t>Queue sacred cats, husbandry and get a second monument</t>
   </si>
 </sst>
 </file>
@@ -1518,14 +1570,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC19BC2B-5BFA-4671-AEB7-3E315F2A94CB}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1744,7 +1896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DBAFE0-52F5-4DF4-A814-454F2AD29450}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -2039,7 +2191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A6961A-B4FE-4F60-B3D4-E503383CEF12}">
   <dimension ref="A1:D13"/>
   <sheetViews>

--- a/public/assets/BOs/Isis.xlsx
+++ b/public/assets/BOs/Isis.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F5BD51-EF2F-4A4E-B8E6-221ED9C134BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C03A60-C7A3-4554-8AE1-A94374DDCA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil3" sheetId="4" r:id="rId1"/>
-    <sheet name="Blad1" sheetId="1" r:id="rId2"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId3"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId4"/>
+    <sheet name="Feuil5" sheetId="6" r:id="rId1"/>
+    <sheet name="Feuil4" sheetId="5" r:id="rId2"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
   <si>
     <t>Archaic</t>
   </si>
@@ -37,6 +38,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -45,6 +47,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 0 / 0 / </t>
     </r>
@@ -54,6 +57,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -73,6 +77,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -81,6 +86,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 0 / 0 / 1</t>
     </r>
@@ -97,6 +103,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">4 / 0 / </t>
     </r>
@@ -106,6 +113,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -114,6 +122,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 1</t>
     </r>
@@ -127,6 +136,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Priest builds Obelisks when enough Gold
 </t>
@@ -137,6 +147,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Alternate Pharao between Food and Monument:
 </t>
@@ -146,6 +157,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-&gt; Forcedrop Food when Pharao empowers Granary, 
 after that Pharao goes to empower monument, repeat</t>
@@ -160,6 +172,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -169,6 +182,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -177,6 +191,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">/ 0(1) / </t>
     </r>
@@ -186,6 +201,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -194,6 +210,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 1</t>
     </r>
@@ -207,6 +224,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -216,6 +234,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -224,6 +243,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">/ 0 / </t>
     </r>
@@ -233,6 +253,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -241,6 +262,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 1</t>
     </r>
@@ -255,6 +277,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">7 </t>
     </r>
@@ -263,6 +286,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 0 / 5 / 1</t>
     </r>
@@ -276,6 +300,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>7 / 0</t>
     </r>
@@ -285,6 +310,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -293,6 +319,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">/ </t>
     </r>
@@ -302,6 +329,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">10 </t>
     </r>
@@ -310,6 +338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 1</t>
     </r>
@@ -334,6 +363,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>7 / 0</t>
     </r>
@@ -343,6 +373,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -351,6 +382,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">/ 10 / </t>
     </r>
@@ -360,6 +392,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -376,6 +409,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Alternate Pharao between Gold and Monument:
 </t>
@@ -385,6 +419,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-&gt; Forcedrop Gold when Pharao empowers Mining Camp, 
 after that Pharao goes to empower monument, repeat</t>
@@ -403,6 +438,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -411,6 +447,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -420,6 +457,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -428,6 +466,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">/ </t>
     </r>
@@ -437,6 +476,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -445,6 +485,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 2</t>
     </r>
@@ -454,6 +495,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 8 build TC</t>
     </r>
@@ -473,6 +515,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -481,6 +524,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 1 / 2 / 2 + 8 build TC</t>
     </r>
@@ -500,6 +544,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">7 / </t>
     </r>
@@ -509,6 +554,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -517,6 +563,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 5 / 1</t>
     </r>
@@ -533,6 +580,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">7 / </t>
     </r>
@@ -542,6 +590,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -550,6 +599,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 5 / 1</t>
     </r>
@@ -564,6 +614,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">9 </t>
     </r>
@@ -572,6 +623,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 2 / 5 / 1</t>
     </r>
@@ -585,6 +637,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -594,6 +647,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -602,6 +656,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 2 / 5 / 1</t>
     </r>
@@ -611,6 +666,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + Builder</t>
     </r>
@@ -630,6 +686,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -639,6 +696,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -647,6 +705,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 2 / 5 /</t>
     </r>
@@ -656,6 +715,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
@@ -664,6 +724,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + Builder</t>
     </r>
@@ -688,6 +749,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -696,6 +758,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 2 / 5 / 2 + Builder</t>
     </r>
@@ -706,6 +769,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">10 / </t>
     </r>
@@ -715,6 +779,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -723,6 +788,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 5 / 2 + Builder</t>
     </r>
@@ -736,6 +802,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">10 / 4 / </t>
     </r>
@@ -745,6 +812,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>7</t>
     </r>
@@ -753,6 +821,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 2 + Builder</t>
     </r>
@@ -773,6 +842,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -781,6 +851,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 4 / </t>
     </r>
@@ -790,6 +861,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -798,6 +870,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 2 + Builder</t>
     </r>
@@ -822,6 +895,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>7</t>
     </r>
@@ -830,6 +904,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 4 / </t>
     </r>
@@ -839,6 +914,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -847,6 +923,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 2 + </t>
     </r>
@@ -856,6 +933,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>6 Builder</t>
     </r>
@@ -867,6 +945,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">After Prosperity GP:
 </t>
@@ -876,6 +955,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Vills transition:
 2 Gold villagers to Food
@@ -894,6 +974,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">0 / </t>
     </r>
@@ -903,6 +984,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">3 </t>
     </r>
@@ -911,6 +993,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 0 / 0</t>
     </r>
@@ -927,6 +1010,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -935,6 +1019,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 3 / 0 / 0</t>
     </r>
@@ -951,6 +1036,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">4 / </t>
     </r>
@@ -960,6 +1046,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -968,6 +1055,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 0 / 0</t>
     </r>
@@ -978,6 +1066,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">4 / 4 / </t>
     </r>
@@ -987,6 +1076,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -995,6 +1085,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / 0</t>
     </r>
@@ -1005,6 +1096,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">4 / 4 / 5 / 0 </t>
     </r>
@@ -1014,6 +1106,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>+ Builder</t>
     </r>
@@ -1028,6 +1121,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">10 </t>
     </r>
@@ -1036,6 +1130,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 4 / 5 / 0 + Builder ( + 12 FS)</t>
     </r>
@@ -1058,6 +1153,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">6 </t>
     </r>
@@ -1066,6 +1162,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">/ 4 / </t>
     </r>
@@ -1075,6 +1172,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>8</t>
     </r>
@@ -1083,6 +1181,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -1092,6 +1191,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1100,6 +1200,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> +</t>
     </r>
@@ -1109,6 +1210,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2 Builder</t>
     </r>
@@ -1142,9 +1244,6 @@
     <t>OUTDATED - 2 TC + 2 Anubites - By Firefox</t>
   </si>
   <si>
-    <t>Isis 2 TC</t>
-  </si>
-  <si>
     <t>4/0/0/0</t>
   </si>
   <si>
@@ -1166,18 +1265,12 @@
     <t>7/7/0/1</t>
   </si>
   <si>
-    <t>All vills onto gold from here, build temple and keep 1 on favour for early atalanta</t>
-  </si>
-  <si>
     <t>Click up, might need to force drop</t>
   </si>
   <si>
     <t>Advance 3:15 ish - Bast generally for eco game or Anubis for raiding/vs Norse or Poseidon</t>
   </si>
   <si>
-    <t>2/2/9/1</t>
-  </si>
-  <si>
     <t>Advance with these vills for 2nd tc + use prosperity</t>
   </si>
   <si>
@@ -1187,17 +1280,50 @@
     <t>Classical 4:15</t>
   </si>
   <si>
-    <t>Take your 2nd tc ASAP with pharaoh priests and your gold vills</t>
-  </si>
-  <si>
     <t>Queue sacred cats, husbandry and get a second monument</t>
+  </si>
+  <si>
+    <t>9/5/0/1</t>
+  </si>
+  <si>
+    <t>Advance 3:15 ish - Bast</t>
+  </si>
+  <si>
+    <t>7/5/2/1</t>
+  </si>
+  <si>
+    <t>Advance with these vills keep pharaoh on hunt empowerment duty</t>
+  </si>
+  <si>
+    <t>Queue sacred cats &amp; husbandry</t>
+  </si>
+  <si>
+    <t>Get to 800 food (queue villagers on food) then build an armory with your food vills and the pharaoh</t>
+  </si>
+  <si>
+    <t>Click up to heroic, move pharaoh and a chunk of food villagers to gold with prosperity, take your sphinx to their base to prepare ancestors + eclipse when you reach Heroic.  You want to drop a castle on your 2nd gold mine with a monument and start producing camels into chariot archers whilst rearranging eco</t>
+  </si>
+  <si>
+    <t>FH - By Sultan</t>
+  </si>
+  <si>
+    <t>2 TC  - By Sultan</t>
+  </si>
+  <si>
+    <t>All vills onto gold from here</t>
+  </si>
+  <si>
+    <t>2/2/10/1</t>
+  </si>
+  <si>
+    <t>Take your 2nd tc ASAP with pharaoh priests and 8 or so gold vills</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1205,10 +1331,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1216,18 +1357,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1235,6 +1379,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1242,6 +1387,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1249,33 +1395,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1283,6 +1435,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1290,16 +1443,25 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1334,31 +1496,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8331A63F-6C66-48DA-9DF7-BB253F542590}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1570,106 +1752,334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC19BC2B-5BFA-4671-AEB7-3E315F2A94CB}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E98EEE-A8F8-4B5F-97DB-3264567D6200}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB30BBB-0977-448C-803B-BA7A3D9A0DD7}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1677,34 +2087,34 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="63.7109375" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63.6640625" customWidth="1"/>
+    <col min="3" max="3" width="62.5546875" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1712,7 +2122,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1724,7 +2134,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1736,7 +2146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1750,7 +2160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +2170,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1770,7 +2180,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1780,7 +2190,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1792,15 +2202,15 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1808,7 +2218,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -1816,7 +2226,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1828,15 +2238,15 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1844,7 +2254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1856,7 +2266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1868,7 +2278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>83</v>
       </c>
@@ -1876,7 +2286,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1896,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DBAFE0-52F5-4DF4-A814-454F2AD29450}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -1904,28 +2314,28 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.28515625" customWidth="1"/>
+    <col min="1" max="1" width="72.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1933,7 +2343,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1945,7 +2355,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1957,7 +2367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1971,7 +2381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1981,7 +2391,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1991,7 +2401,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2003,7 +2413,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2015,7 +2425,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -2025,7 +2435,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -2035,7 +2445,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2047,15 +2457,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -2067,15 +2477,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2083,7 +2493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
@@ -2091,7 +2501,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -2101,7 +2511,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2111,7 +2521,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -2121,15 +2531,15 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2137,7 +2547,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2151,7 +2561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -2162,15 +2572,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>82</v>
       </c>
@@ -2191,7 +2601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A6961A-B4FE-4F60-B3D4-E503383CEF12}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2199,29 +2609,29 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
-    <col min="2" max="2" width="83.28515625" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="83.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2229,7 +2639,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -2241,7 +2651,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -2253,7 +2663,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -2265,7 +2675,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2277,7 +2687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -2287,7 +2697,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
@@ -2299,15 +2709,15 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2315,7 +2725,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -2327,7 +2737,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>84</v>
       </c>

--- a/public/assets/BOs/Isis.xlsx
+++ b/public/assets/BOs/Isis.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C03A60-C7A3-4554-8AE1-A94374DDCA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C94FC6-F76C-41B7-B89B-07AF116D74B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil5" sheetId="6" r:id="rId1"/>
     <sheet name="Feuil4" sheetId="5" r:id="rId2"/>
-    <sheet name="Blad1" sheetId="1" r:id="rId3"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId4"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId5"/>
+    <sheet name="Feuil3" sheetId="7" r:id="rId3"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
   <si>
     <t>Archaic</t>
   </si>
@@ -969,361 +969,279 @@
     <t>Heroic (7.15)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/ 0 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Initial 3 vills: 
-2 to Wood + Pharao to Wood
-1 Builds Dock, House, then to Wood</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t>https://www.youtube.com/watch?v=h-2EuniduXM&amp;t=&amp;ab_channel=DeitiesofDeath</t>
+  </si>
+  <si>
+    <t>https://youtu.be/h-2EuniduXM?si=DzI9yv7mW9gFL4KP&amp;t=510</t>
+  </si>
+  <si>
+    <t>OUTDATED - FH (AE) - By Firefox</t>
+  </si>
+  <si>
+    <t>OUTDATED - 2 TC + 2 Anubites - By Firefox</t>
+  </si>
+  <si>
+    <t>4/0/0/0</t>
+  </si>
+  <si>
+    <t>first 3 vills cut a tree for 8 extra wood, then build a granary and go hunt. 4th villager makes a monument then goes to hunt. Autoqueue Flood of the nile</t>
+  </si>
+  <si>
+    <t>4/5/0/1</t>
+  </si>
+  <si>
+    <t>next 5 vills go to gold and get pickaxe early. Whilst this is happening you can bounce your pharaoh betweent the granary and monument but not essential</t>
+  </si>
+  <si>
+    <t>7/5/0/1</t>
+  </si>
+  <si>
+    <t>Up to 7 vills food, build a temple after flood has started with 3 vills</t>
+  </si>
+  <si>
+    <t>7/7/0/1</t>
+  </si>
+  <si>
+    <t>Click up, might need to force drop</t>
+  </si>
+  <si>
+    <t>Advance 3:15 ish - Bast generally for eco game or Anubis for raiding/vs Norse or Poseidon</t>
+  </si>
+  <si>
+    <t>Advance with these vills for 2nd tc + use prosperity</t>
+  </si>
+  <si>
+    <t>Get a 2nd priest and the upgrade to pick some relics</t>
+  </si>
+  <si>
+    <t>Classical 4:15</t>
+  </si>
+  <si>
+    <t>Queue sacred cats, husbandry and get a second monument</t>
+  </si>
+  <si>
+    <t>9/5/0/1</t>
+  </si>
+  <si>
+    <t>Advance 3:15 ish - Bast</t>
+  </si>
+  <si>
+    <t>7/5/2/1</t>
+  </si>
+  <si>
+    <t>Advance with these vills keep pharaoh on hunt empowerment duty</t>
+  </si>
+  <si>
+    <t>Queue sacred cats &amp; husbandry</t>
+  </si>
+  <si>
+    <t>Get to 800 food (queue villagers on food) then build an armory with your food vills and the pharaoh</t>
+  </si>
+  <si>
+    <t>Click up to heroic, move pharaoh and a chunk of food villagers to gold with prosperity, take your sphinx to their base to prepare ancestors + eclipse when you reach Heroic.  You want to drop a castle on your 2nd gold mine with a monument and start producing camels into chariot archers whilst rearranging eco</t>
+  </si>
+  <si>
+    <t>FH - By Sultan</t>
+  </si>
+  <si>
+    <t>2 TC  - By Sultan</t>
+  </si>
+  <si>
+    <t>All vills onto gold from here</t>
+  </si>
+  <si>
+    <t>2/2/10/1</t>
+  </si>
+  <si>
+    <t>Take your 2nd tc ASAP with pharaoh priests and 8 or so gold vills</t>
+  </si>
+  <si>
+    <r>
+      <t>0/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/0/0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial vills: 2 to wood, 3rd vil goes with Pharaoh to built Dock and then go wood. Pharaoh empowers wood.</t>
+  </si>
+  <si>
+    <t>Auto-queue fishing ship
+Scout with priest
+Chop wood close to water</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/3/0/0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 to Food (hunt). You will need 2 boars to age up</t>
+  </si>
+  <si>
+    <t>Pharaoh still on wood</t>
+  </si>
+  <si>
+    <r>
+      <t>3/3/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>4</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 3 / 0 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>4 to Food (shoot boar to TC)</t>
-  </si>
-  <si>
-    <t>Queue Fishing Ships</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0 / 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4 / 4 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4 / 4 / 5 / 0 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>+ Builder</t>
-    </r>
-  </si>
-  <si>
-    <t>1 builds docks</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/ 4 / 5 / 0 + Builder ( + 12 FS)</t>
-    </r>
-  </si>
-  <si>
-    <t>6 to Food</t>
-  </si>
-  <si>
-    <t>Vills transition (on 150 Gold):
-1 Gold villager builds a House, then back to Gold
-150 gold: 1 Gold villager builds a Temple, then back to Gold</t>
-  </si>
-  <si>
-    <t>Advance - Bast (4.15)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/ 4 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2 Builder</t>
-    </r>
-  </si>
-  <si>
-    <t>Vills transition:
-1 Gold villager builds monument, then back to Gold
-3 Food villagers to Gold
-1 Food villager becomes a Builder (Houses)
-Pharao empowers Gold</t>
-  </si>
-  <si>
-    <t>Pre-queue Purse Seine</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h-2EuniduXM&amp;t=&amp;ab_channel=DeitiesofDeath</t>
-  </si>
-  <si>
-    <t>https://youtu.be/h-2EuniduXM?si=DzI9yv7mW9gFL4KP&amp;t=510</t>
-  </si>
-  <si>
-    <t>https://youtu.be/h-2EuniduXM?si=BsCb5yP7MBGUuLad&amp;t=832</t>
-  </si>
-  <si>
-    <t>OUTDATED - Water FH - By Firefox</t>
-  </si>
-  <si>
-    <t>OUTDATED - FH (AE) - By Firefox</t>
-  </si>
-  <si>
-    <t>OUTDATED - 2 TC + 2 Anubites - By Firefox</t>
-  </si>
-  <si>
-    <t>4/0/0/0</t>
-  </si>
-  <si>
-    <t>first 3 vills cut a tree for 8 extra wood, then build a granary and go hunt. 4th villager makes a monument then goes to hunt. Autoqueue Flood of the nile</t>
-  </si>
-  <si>
-    <t>4/5/0/1</t>
-  </si>
-  <si>
-    <t>next 5 vills go to gold and get pickaxe early. Whilst this is happening you can bounce your pharaoh betweent the granary and monument but not essential</t>
-  </si>
-  <si>
-    <t>7/5/0/1</t>
-  </si>
-  <si>
-    <t>Up to 7 vills food, build a temple after flood has started with 3 vills</t>
-  </si>
-  <si>
-    <t>7/7/0/1</t>
-  </si>
-  <si>
-    <t>Click up, might need to force drop</t>
-  </si>
-  <si>
-    <t>Advance 3:15 ish - Bast generally for eco game or Anubis for raiding/vs Norse or Poseidon</t>
-  </si>
-  <si>
-    <t>Advance with these vills for 2nd tc + use prosperity</t>
-  </si>
-  <si>
-    <t>Get a 2nd priest and the upgrade to pick some relics</t>
-  </si>
-  <si>
-    <t>Classical 4:15</t>
-  </si>
-  <si>
-    <t>Queue sacred cats, husbandry and get a second monument</t>
-  </si>
-  <si>
-    <t>9/5/0/1</t>
-  </si>
-  <si>
-    <t>Advance 3:15 ish - Bast</t>
-  </si>
-  <si>
-    <t>7/5/2/1</t>
-  </si>
-  <si>
-    <t>Advance with these vills keep pharaoh on hunt empowerment duty</t>
-  </si>
-  <si>
-    <t>Queue sacred cats &amp; husbandry</t>
-  </si>
-  <si>
-    <t>Get to 800 food (queue villagers on food) then build an armory with your food vills and the pharaoh</t>
-  </si>
-  <si>
-    <t>Click up to heroic, move pharaoh and a chunk of food villagers to gold with prosperity, take your sphinx to their base to prepare ancestors + eclipse when you reach Heroic.  You want to drop a castle on your 2nd gold mine with a monument and start producing camels into chariot archers whilst rearranging eco</t>
-  </si>
-  <si>
-    <t>FH - By Sultan</t>
-  </si>
-  <si>
-    <t>2 TC  - By Sultan</t>
-  </si>
-  <si>
-    <t>All vills onto gold from here</t>
-  </si>
-  <si>
-    <t>2/2/10/1</t>
-  </si>
-  <si>
-    <t>Take your 2nd tc ASAP with pharaoh priests and 8 or so gold vills</t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/0</t>
+    </r>
+  </si>
+  <si>
+    <t>4 to Gold</t>
+  </si>
+  <si>
+    <t>After 4th vil to gold, move Pharaoh to food (tc)
+1 villager from wood builds a house</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/3/4/0</t>
+    </r>
+  </si>
+  <si>
+    <t>4 more vils to food (last one if needed)</t>
+  </si>
+  <si>
+    <t>When there is 2849 or less gold in goldmine, build temple with 3 vils from gold (about 2:45)
+Stop making fishing ships when you have 9.
+Advance with Anubis (3:20)
+If low on food train 1 more villager and age 3:40</t>
+  </si>
+  <si>
+    <t>Advance - Anubis (3.20)</t>
+  </si>
+  <si>
+    <t>0/7/6/1</t>
+  </si>
+  <si>
+    <t>Need 6 villagers on gold
+You have 9 fishing ships
+Rest to wood except for the villagers building dock/monument</t>
+  </si>
+  <si>
+    <t>Send 1 villager to build a 2nd dock when clicking age up. Then use it to build houses.
+When having 50g (10 seconds later) send a 2nd villager to build a 2nd dock. Then move it back to wood.
+When having 50g use 1 villager from gold to build a monument. Then move it back to gold
+Dont train more fishing ships, stay at 9.</t>
+  </si>
+  <si>
+    <t>Classical (4:20)</t>
+  </si>
+  <si>
+    <t>Reach classical with 3 docks. Start building war ships from them</t>
+  </si>
+  <si>
+    <r>
+      <t>0/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/6/1</t>
+    </r>
+  </si>
+  <si>
+    <t>3 vils to wood</t>
+  </si>
+  <si>
+    <t>Keep training war boats. Use snakes on water if needed to win it.</t>
+  </si>
+  <si>
+    <t>Water - Medit BO - By BacHi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1466,8 +1384,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1486,6 +1438,18 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1501,7 +1465,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1516,6 +1480,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1530,12 +1496,33 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1755,157 +1742,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E98EEE-A8F8-4B5F-97DB-3264567D6200}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="B12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1926,25 +1913,25 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1952,118 +1939,118 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="10" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="10" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -2080,6 +2067,171 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D76AB9-4ADE-4F71-9B12-F382E3DA9BF5}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2090,31 +2242,31 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="63.6640625" customWidth="1"/>
-    <col min="3" max="3" width="62.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2122,7 +2274,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2134,7 +2286,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2146,7 +2298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2160,7 +2312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2170,7 +2322,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2180,7 +2332,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2190,7 +2342,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2202,15 +2354,15 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2218,7 +2370,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -2226,7 +2378,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2238,15 +2390,15 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -2254,7 +2406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -2266,7 +2418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -2278,15 +2430,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2306,36 +2458,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DBAFE0-52F5-4DF4-A814-454F2AD29450}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.33203125" customWidth="1"/>
+    <col min="1" max="1" width="72.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2343,7 +2495,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2355,7 +2507,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2367,7 +2519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2381,7 +2533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2391,7 +2543,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2401,7 +2553,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2413,7 +2565,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,7 +2577,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -2435,7 +2587,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -2445,7 +2597,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2457,15 +2609,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -2477,15 +2629,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2493,7 +2645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
@@ -2501,7 +2653,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -2511,7 +2663,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2521,7 +2673,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -2531,15 +2683,15 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2547,7 +2699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2561,7 +2713,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -2572,17 +2724,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2599,155 +2751,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A6961A-B4FE-4F60-B3D4-E503383CEF12}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
-    <col min="2" max="2" width="83.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>